--- a/Kontacts_контакты для Сергея.xlsx
+++ b/Kontacts_контакты для Сергея.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="195">
   <si>
     <t>контрагент</t>
   </si>
@@ -632,12 +632,39 @@
       <t xml:space="preserve"> аппаратура ОАК+БХ</t>
     </r>
   </si>
+  <si>
+    <t>«БіоТестЛаб»</t>
+  </si>
+  <si>
+    <t> м. Васильків, вул. Володимирськая, 57-А</t>
+  </si>
+  <si>
+    <r>
+      <t>Тeл.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+380 44 33-99-313, +380 44 33-99-323</t>
+    </r>
+  </si>
+  <si>
+    <t>Е-маil: info@biotestlab.net</t>
+  </si>
+  <si>
+    <t>Наркоз Релакс колоидный</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +713,29 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -835,10 +885,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -884,6 +935,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -896,87 +948,99 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1258,7 +1322,7 @@
   <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:C58"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,39 +1906,39 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="18" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="18"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="20"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="17" t="s">
         <v>189</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -1884,20 +1948,30 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="12"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="12"/>
+    <row r="59" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="51"/>
+      <c r="B60" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="51"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="12"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="51"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
@@ -2150,7 +2224,9 @@
       <c r="C111" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="C59:C61"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="B54:B55"/>
@@ -2158,8 +2234,11 @@
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="A56:A57"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B61" r:id="rId1" display="mailto:info@biotestlab.net"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" copies="10" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" copies="10" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2178,98 +2257,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="38" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="40"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="31"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="43"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="46"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="22" t="s">
         <v>149</v>
       </c>
@@ -2286,17 +2365,17 @@
       <c r="W4" s="24"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
       <c r="L5" s="25"/>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
@@ -2311,19 +2390,19 @@
       <c r="W5" s="27"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="22" t="s">
         <v>158</v>
       </c>
@@ -2340,17 +2419,17 @@
       <c r="W6" s="24"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
@@ -2365,19 +2444,19 @@
       <c r="W7" s="27"/>
     </row>
     <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
       <c r="L8" s="22" t="s">
         <v>159</v>
       </c>
@@ -2394,17 +2473,17 @@
       <c r="W8" s="24"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
       <c r="L9" s="25"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
@@ -2556,29 +2635,29 @@
       <c r="W14" s="24"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="36"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="40"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
@@ -2606,58 +2685,58 @@
       <c r="W16" s="27"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="28" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="30"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="43"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="33"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="46"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
@@ -3081,12 +3160,16 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A31:K32"/>
-    <mergeCell ref="L31:W32"/>
-    <mergeCell ref="A33:K34"/>
-    <mergeCell ref="L33:W34"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="L27:W28"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="A10:K11"/>
+    <mergeCell ref="A12:K13"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:W18"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:W20"/>
+    <mergeCell ref="A14:K16"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="L1:W3"/>
     <mergeCell ref="A29:K30"/>
@@ -3103,16 +3186,12 @@
     <mergeCell ref="L10:W11"/>
     <mergeCell ref="L12:W13"/>
     <mergeCell ref="L14:W16"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:W18"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:W20"/>
-    <mergeCell ref="A14:K16"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A6:K7"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="A10:K11"/>
-    <mergeCell ref="A12:K13"/>
+    <mergeCell ref="A31:K32"/>
+    <mergeCell ref="L31:W32"/>
+    <mergeCell ref="A33:K34"/>
+    <mergeCell ref="L33:W34"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="L27:W28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Kontacts_контакты для Сергея.xlsx
+++ b/Kontacts_контакты для Сергея.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="199">
   <si>
     <t>контрагент</t>
   </si>
@@ -658,6 +658,18 @@
   </si>
   <si>
     <t>Наркоз Релакс колоидный</t>
+  </si>
+  <si>
+    <t>Аметист-24, интернетмагазин</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>380932413355 - вайбер</t>
+  </si>
+  <si>
+    <t>Кутасепт 1 л или 5 литров</t>
   </si>
 </sst>
 </file>
@@ -770,7 +782,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -884,12 +896,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -936,6 +974,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -948,6 +998,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -966,6 +1019,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -996,46 +1076,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1322,7 +1378,7 @@
   <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,36 +1962,36 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="18"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="22"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="24" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="20"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="24"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
@@ -1949,39 +2005,47 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="21" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="49" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="51"/>
+      <c r="C60" s="21"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="50" t="s">
+      <c r="A61" s="21"/>
+      <c r="B61" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C61" s="51"/>
+      <c r="C61" s="21"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="12"/>
+      <c r="A62" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="12"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="55"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
@@ -2257,919 +2321,915 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="31"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="34"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="48"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="51"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="22" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="24"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="29"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="27"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="22" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="24"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="29"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="27"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="32"/>
     </row>
     <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="22" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="24"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="29"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="27"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="32"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="22" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="24"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="29"/>
     </row>
     <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="27"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="32"/>
     </row>
     <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="22" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="24"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="29"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="27"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="32"/>
     </row>
     <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="22" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="24"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="29"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="40"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="41"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="27"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="32"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="41" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="43"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="35"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="46"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="38"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="22" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="24"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="29"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="27"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="32"/>
     </row>
     <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="22" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="24"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="29"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="27"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="32"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="22" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="24"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="29"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="27"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="32"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="22" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="24"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="29"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="27"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="32"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="22" t="s">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="24"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="29"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="27"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="32"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="24"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="29"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="27"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="32"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="24"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="29"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="27"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="32"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="24"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="29"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="27"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A6:K7"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="A10:K11"/>
-    <mergeCell ref="A12:K13"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:W18"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:W20"/>
-    <mergeCell ref="A14:K16"/>
+    <mergeCell ref="A31:K32"/>
+    <mergeCell ref="L31:W32"/>
+    <mergeCell ref="A33:K34"/>
+    <mergeCell ref="L33:W34"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="L27:W28"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="L1:W3"/>
     <mergeCell ref="A29:K30"/>
@@ -3186,12 +3246,16 @@
     <mergeCell ref="L10:W11"/>
     <mergeCell ref="L12:W13"/>
     <mergeCell ref="L14:W16"/>
-    <mergeCell ref="A31:K32"/>
-    <mergeCell ref="L31:W32"/>
-    <mergeCell ref="A33:K34"/>
-    <mergeCell ref="L33:W34"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="L27:W28"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:W18"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:W20"/>
+    <mergeCell ref="A14:K16"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="A10:K11"/>
+    <mergeCell ref="A12:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Kontacts_контакты для Сергея.xlsx
+++ b/Kontacts_контакты для Сергея.xlsx
@@ -226,12 +226,6 @@
     <t>Ветаптека Черкассы</t>
   </si>
   <si>
-    <t>063 338 17 27</t>
-  </si>
-  <si>
-    <t>Олежка. Оптовая аптека в г. Черкассы. Иногда есть те позиции, которых нет у киевских поставщиков. Отправляют новой почтой.(на крайний случай)</t>
-  </si>
-  <si>
     <t>Ремонт микроскопов</t>
   </si>
   <si>
@@ -670,6 +664,12 @@
   </si>
   <si>
     <t>Кутасепт 1 л или 5 литров</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Оптовая аптека в г. Черкассы. Иногда есть те позиции, которых нет у киевских поставщиков. Отправляют новой почтой.(на крайний случай)</t>
+  </si>
+  <si>
+    <t>063 338 17 27 - Олежка.              067-472-22-45 Алена</t>
   </si>
 </sst>
 </file>
@@ -983,6 +983,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -998,9 +1016,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1019,6 +1034,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1037,61 +1091,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1377,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,7 +1407,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>22</v>
@@ -1567,10 +1567,10 @@
         <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
         <v>64</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C26" s="4"/>
     </row>
@@ -1675,377 +1675,377 @@
         <v>65</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="C44" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C51" s="11"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="C52" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="23" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="28"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="B56" s="31" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="22"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="C56" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B56" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="24"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="30"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+      <c r="C59" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="27"/>
+      <c r="B60" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="C60" s="27"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="27"/>
+      <c r="B61" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C61" s="27"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="26" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C60" s="21"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C61" s="21"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="B62" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
-      <c r="B63" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="55"/>
+      <c r="C63" s="24"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
@@ -2321,915 +2321,919 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="45"/>
+      <c r="A1" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="41"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="48"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="44"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="51"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="47"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="34"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="37"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="34"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="37"/>
+    </row>
+    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="29"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="32"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="34"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="37"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27" t="s">
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="34"/>
+    </row>
+    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="37"/>
+    </row>
+    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="34"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="37"/>
+    </row>
+    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="34"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="50"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="37"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="29"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="32"/>
-    </row>
-    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="29"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="32"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="29"/>
-    </row>
-    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="32"/>
-    </row>
-    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="29"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="32"/>
-    </row>
-    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="29"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="41"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="32"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="53"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="56"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="33" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="35"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="38"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="34"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="37"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="27" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="29"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="32"/>
-    </row>
-    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="34"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="37"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="27" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="29"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="32"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="34"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="37"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="27" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="29"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="32"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="34"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="37"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="27" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="29"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="32"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="29"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="34"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="32"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="37"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="29"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="34"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="32"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="37"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="29"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="34"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="32"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="37"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="29"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="34"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="32"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A31:K32"/>
-    <mergeCell ref="L31:W32"/>
-    <mergeCell ref="A33:K34"/>
-    <mergeCell ref="L33:W34"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="L27:W28"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="A10:K11"/>
+    <mergeCell ref="A12:K13"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:W18"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:W20"/>
+    <mergeCell ref="A14:K16"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="L1:W3"/>
     <mergeCell ref="A29:K30"/>
@@ -3246,16 +3250,12 @@
     <mergeCell ref="L10:W11"/>
     <mergeCell ref="L12:W13"/>
     <mergeCell ref="L14:W16"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:W18"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:W20"/>
-    <mergeCell ref="A14:K16"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A6:K7"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="A10:K11"/>
-    <mergeCell ref="A12:K13"/>
+    <mergeCell ref="A31:K32"/>
+    <mergeCell ref="L31:W32"/>
+    <mergeCell ref="A33:K34"/>
+    <mergeCell ref="L33:W34"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="L27:W28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3277,26 +3277,26 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" t="s">
         <v>177</v>
-      </c>
-      <c r="D5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Kontacts_контакты для Сергея.xlsx
+++ b/Kontacts_контакты для Сергея.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Taranov\LAPOUS_BOSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3482E07F-CA3D-49ED-9897-4090D30B0D21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6885"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Поставщики" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="204">
   <si>
     <t>контрагент</t>
   </si>
@@ -657,12 +658,6 @@
     <t>Аметист-24, интернетмагазин</t>
   </si>
   <si>
-    <t>Владимир</t>
-  </si>
-  <si>
-    <t>380932413355 - вайбер</t>
-  </si>
-  <si>
     <t>Кутасепт 1 л или 5 литров</t>
   </si>
   <si>
@@ -670,13 +665,85 @@
   </si>
   <si>
     <t>063 338 17 27 - Олежка.              067-472-22-45 Алена</t>
+  </si>
+  <si>
+    <t>ИНТЕЛЛА</t>
+  </si>
+  <si>
+    <t>конт. Лицо - Юлия,                                                                           емкость для анализа мочи стерильная</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Харьков, ул. Дарвина,6 (офис), ул. Клочковская, 67 (склад) +380675040040 +380675790577 +380500861770 +38057755844   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://intella.com.ua</t>
+    </r>
+  </si>
+  <si>
+    <t>PROFF - SEGMENT</t>
+  </si>
+  <si>
+    <t>Емкость для анализа кала vitaplast 25 мл нестерильная, пакеты с zip-замком для таблеток,  скотч, Стрейч пленка прозрачная 23 мкм × 500 мм × 3 кг</t>
+  </si>
+  <si>
+    <t>380932413355 - вайбер     Владимир</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Евгений, Юлия                   +380674577796     +380934577797      +380504577797        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://proff-segment.prom.ua/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proffsegment@gmail.com</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +816,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -782,7 +866,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -909,25 +993,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -983,23 +1054,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1016,6 +1072,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1032,45 +1091,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1091,8 +1111,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1374,11 +1451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,10 +1752,10 @@
         <v>65</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,36 +2039,36 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="23" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="28"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="23"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="30"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="25"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
@@ -2005,92 +2082,102 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="22" t="s">
         <v>188</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="22" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C60" s="27"/>
+      <c r="C60" s="22"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C61" s="27"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+      <c r="C61" s="22"/>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="B62" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="26" t="s">
+      <c r="B62" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="24"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="12"/>
+    </row>
+    <row r="63" spans="1:3" ht="75.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="92.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="12"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="54"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="12"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="54"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="12"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="54"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="12"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="54"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="12"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="54"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="12"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="54"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="12"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="54"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="12"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="54"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
@@ -2281,11 +2368,6 @@
       <c r="A110" s="12"/>
       <c r="B110" s="9"/>
       <c r="C110" s="12"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2299,7 +2381,7 @@
     <mergeCell ref="A56:A57"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B61" r:id="rId1" display="mailto:info@biotestlab.net"/>
+    <hyperlink ref="B61" r:id="rId1" display="mailto:info@biotestlab.net" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" copies="10" r:id="rId2"/>
@@ -2307,7 +2389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -2321,919 +2403,915 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="41"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="44"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="49"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="47"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="52"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="32" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="34"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="37"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="33"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="32" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="34"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="30"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="37"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="33"/>
     </row>
     <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="32" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="34"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="30"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="37"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="33"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="32" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="34"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="30"/>
     </row>
     <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
     </row>
     <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="32" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="34"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="30"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="37"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="33"/>
     </row>
     <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="32" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="34"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="30"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="50"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="42"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="37"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="33"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="51" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="53"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="36"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="56"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="39"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="32" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="34"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="30"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="37"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="33"/>
     </row>
     <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="32" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="34"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="30"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="37"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="33"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="32" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="34"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="30"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="37"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="33"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="32" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="34"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="30"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="37"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="33"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="32" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="34"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="30"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="37"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="33"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="34"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="30"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="37"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="33"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="34"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="30"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="37"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="33"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="34"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="30"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="37"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A6:K7"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="A10:K11"/>
-    <mergeCell ref="A12:K13"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:W18"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:W20"/>
-    <mergeCell ref="A14:K16"/>
+    <mergeCell ref="A31:K32"/>
+    <mergeCell ref="L31:W32"/>
+    <mergeCell ref="A33:K34"/>
+    <mergeCell ref="L33:W34"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="L27:W28"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="L1:W3"/>
     <mergeCell ref="A29:K30"/>
@@ -3250,12 +3328,16 @@
     <mergeCell ref="L10:W11"/>
     <mergeCell ref="L12:W13"/>
     <mergeCell ref="L14:W16"/>
-    <mergeCell ref="A31:K32"/>
-    <mergeCell ref="L31:W32"/>
-    <mergeCell ref="A33:K34"/>
-    <mergeCell ref="L33:W34"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="L27:W28"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:W18"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:W20"/>
+    <mergeCell ref="A14:K16"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="A10:K11"/>
+    <mergeCell ref="A12:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3263,7 +3345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Kontacts_контакты для Сергея.xlsx
+++ b/Kontacts_контакты для Сергея.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Taranov\LAPOUS_BOSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LAPOUS_BOSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90197A1-BB13-4FFB-977F-036EDA1BA4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6885"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Поставщики" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="197">
   <si>
     <t>контрагент</t>
   </si>
@@ -190,18 +191,12 @@
     <t>093 014 25 91</t>
   </si>
   <si>
-    <t>Ул. Волынская. На розлив</t>
-  </si>
-  <si>
     <t>кардиолог узист</t>
   </si>
   <si>
     <t>097 710 66 37/095 631 81 51</t>
   </si>
   <si>
-    <t>Лиля Юрьевна</t>
-  </si>
-  <si>
     <t>эпизоотолог</t>
   </si>
   <si>
@@ -265,12 +260,6 @@
     <t>бывший работник зоопарка, понимает по всякой экзотике. Владелец клиники в р-не М Славутыч</t>
   </si>
   <si>
-    <t>Beurre</t>
-  </si>
-  <si>
-    <t>компания из одессы. Покупаем у них тару для хлоргексидина. Флпкон называется "глория". Всегда платил на карту, чтобы не платить на почте за обратную отправку денег.</t>
-  </si>
-  <si>
     <t>ТОВ ВКФ Плюс</t>
   </si>
   <si>
@@ -316,12 +305,6 @@
     <t>Расходники</t>
   </si>
   <si>
-    <t>Юнифарма</t>
-  </si>
-  <si>
-    <t>464 94 26</t>
-  </si>
-  <si>
     <t>Черничко</t>
   </si>
   <si>
@@ -368,15 +351,6 @@
   </si>
   <si>
     <t>Наш интернет провайдер, Артюшенко Алексей Викторович</t>
-  </si>
-  <si>
-    <t>Бухгалтер</t>
-  </si>
-  <si>
-    <t>Ольга Михайловна</t>
-  </si>
-  <si>
-    <t>097 426 85 84/ 098 914 72 53</t>
   </si>
   <si>
     <t>Видеонаблюдение: 91.240.140.251   \\\   admin   \\\   2016   \\\   Имя lapous   \\\   режим регистрации IP/Domain   \\\   Адрес 91.240.140.251   \\\   порт 8000   \\\   Имя пользователя admin   \\\   пароль 0634092192</t>
@@ -438,12 +412,6 @@
   </si>
   <si>
     <t>0931701332</t>
-  </si>
-  <si>
-    <t>klinikalapous</t>
-  </si>
-  <si>
-    <t>huyvsraky123</t>
   </si>
   <si>
     <t>Гуманенко Валерий Леонидович глава правления.</t>
@@ -593,9 +561,6 @@
   </si>
   <si>
     <t>Изготовление и пошив под заказ.      Наталия Молчанова</t>
-  </si>
-  <si>
-    <t>Мед препараты, растворы итп. Не успел с ними начать сотрудничать. Прозванивай, договаривайся. Многие ветклиники с ними работают. ПОКА НЕТ РАСТВОРОВ _ ИНИКОГДА НЕ БУДЕТ, ШПРИЦОВ ТОЖН НЕТ, С ВЕТКЛИНИКАМИ УЖ ГОД НЕ РАБОТАЮТ</t>
   </si>
   <si>
     <t>050-415-75-60</t>
@@ -671,11 +636,43 @@
   <si>
     <t>063 338 17 27 - Олежка.              067-472-22-45 Алена</t>
   </si>
+  <si>
+    <t xml:space="preserve">Лиля Юрьевна </t>
+  </si>
+  <si>
+    <t>Ул. Волынская-44,          2,2грн за 1 литр ,если 100 литров - дешевле, 5 дней, иногда и субота с 09 до 16.00</t>
+  </si>
+  <si>
+    <t>Крематорий</t>
+  </si>
+  <si>
+    <t>044-529-34-27   044-529-15-14</t>
+  </si>
+  <si>
+    <t>Кремация  животных  Байкова-16, крематорий, 
+0673650734
+levadna70@gmail.com</t>
+  </si>
+  <si>
+    <t>компания из одессы. Покупаем у них тару для хлоргексидина. Фапкон называется "глория". Всегда платил на карту, чтобы не платить на почте за обратную отправку денег.</t>
+  </si>
+  <si>
+    <t>Beurre                                                             https://beurre.ua/flakon-gloriya-100-ml-belyy-standarta-20410.html</t>
+  </si>
+  <si>
+    <t>380 (63) 976-30-01</t>
+  </si>
+  <si>
+    <t>компания из одессы. Покупаем у них тару для хлоргексидина. Фапкон называется "глория"</t>
+  </si>
+  <si>
+    <t>https://tara-shop.com.ua/            tarashopinfo@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -927,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -961,12 +958,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1001,6 +992,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1016,6 +1013,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1034,6 +1034,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1064,35 +1091,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1374,11 +1380,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,14 +1406,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>127</v>
+      <c r="C2" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1426,7 +1432,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>22</v>
@@ -1567,10 +1573,10 @@
         <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1603,7 +1609,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1617,435 +1623,431 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>54</v>
+      <c r="C22" s="25" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="7" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="B34" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="4" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="4" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="B36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="B37" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C37" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="4" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="B38" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C38" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="9" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="B47" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>131</v>
-      </c>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="11"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="11"/>
+        <v>133</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="A52" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="28"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="28"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="30"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="27"/>
+      <c r="B58" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="C58" s="27"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="27"/>
+      <c r="B59" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="28"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
+      <c r="C59" s="27"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B60" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="30"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B59" s="18" t="s">
+      <c r="C61" s="22"/>
+    </row>
+    <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="C59" s="27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="19" t="s">
+      <c r="B62" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C60" s="27"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="20" t="s">
+      <c r="C62" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C61" s="27"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C63" s="24"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
@@ -2277,37 +2279,28 @@
       <c r="B109" s="9"/>
       <c r="C109" s="12"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="12"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
     <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B54:B55"/>
     <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B61" r:id="rId1" display="mailto:info@biotestlab.net"/>
+    <hyperlink ref="B59" r:id="rId1" display="mailto:info@biotestlab.net" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A33" r:id="rId2" display="tarashopinfo@gmail.com" xr:uid="{165F3AAD-EB50-42A1-918B-61F2BD253300}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" copies="10" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" copies="10" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -2321,919 +2314,915 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="41"/>
+      <c r="A1" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="51"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="44"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="54"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="47"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="57"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="35"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="38"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="35"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="38"/>
+    </row>
+    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="32" t="s">
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="35"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="38"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="35"/>
+    </row>
+    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="38"/>
+    </row>
+    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="35"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="38"/>
+    </row>
+    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="35"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="47"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="38"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="34"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="37"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="32" t="s">
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="41"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="44"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="35"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="38"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="35"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="38"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="35"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="38"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="34"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="37"/>
-    </row>
-    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="32" t="s">
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="35"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="38"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="34"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="37"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="34"/>
-    </row>
-    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37"/>
-    </row>
-    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="34"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="37"/>
-    </row>
-    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="34"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="50"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="37"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="53"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="56"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="34"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="37"/>
-    </row>
-    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="34"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="37"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="34"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="37"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="34"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="37"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="35"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="37"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="38"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="34"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="35"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="37"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="38"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="34"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="35"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="37"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="38"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="34"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="35"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="37"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A6:K7"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="A10:K11"/>
-    <mergeCell ref="A12:K13"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:W18"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:W20"/>
-    <mergeCell ref="A14:K16"/>
+    <mergeCell ref="A31:K32"/>
+    <mergeCell ref="L31:W32"/>
+    <mergeCell ref="A33:K34"/>
+    <mergeCell ref="L33:W34"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="L27:W28"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="L1:W3"/>
     <mergeCell ref="A29:K30"/>
@@ -3250,12 +3239,16 @@
     <mergeCell ref="L10:W11"/>
     <mergeCell ref="L12:W13"/>
     <mergeCell ref="L14:W16"/>
-    <mergeCell ref="A31:K32"/>
-    <mergeCell ref="L31:W32"/>
-    <mergeCell ref="A33:K34"/>
-    <mergeCell ref="L33:W34"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="L27:W28"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:W18"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:W20"/>
+    <mergeCell ref="A14:K16"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="A10:K11"/>
+    <mergeCell ref="A12:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3263,7 +3256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3277,26 +3270,26 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Kontacts_контакты для Сергея.xlsx
+++ b/Kontacts_контакты для Сергея.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LAPOUS_BOSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Taranov\LAPOUS_BOSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90197A1-BB13-4FFB-977F-036EDA1BA4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8EB3D4-FFAE-420F-8E2A-1776F64F7F1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Поставщики" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="200">
   <si>
     <t>контрагент</t>
   </si>
@@ -667,6 +667,15 @@
   </si>
   <si>
     <t>https://tara-shop.com.ua/            tarashopinfo@gmail.com</t>
+  </si>
+  <si>
+    <t>vetapteka.prom.ua</t>
+  </si>
+  <si>
+    <t>067-433-03-37</t>
+  </si>
+  <si>
+    <t>Рабистар по 1 дозе недорого, высылают по Новой Почте. Винница, ул.50 лет победы-34А, рынок "Маки"</t>
   </si>
 </sst>
 </file>
@@ -924,7 +933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -998,6 +1007,15 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,92 +1031,86 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1383,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,7 +1639,7 @@
       <c r="A22" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="25" t="s">
@@ -1735,7 +1747,7 @@
       <c r="A32" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C32" s="25" t="s">
@@ -1743,10 +1755,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="27" t="s">
         <v>194</v>
       </c>
       <c r="C33" s="25" t="s">
@@ -1948,36 +1960,36 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="31" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="28"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="31"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="33" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="30"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="33"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
@@ -1991,29 +2003,29 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="30" t="s">
         <v>176</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="30" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="27"/>
+      <c r="C58" s="30"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="27"/>
+      <c r="C59" s="30"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
@@ -2034,7 +2046,7 @@
       <c r="C61" s="22"/>
     </row>
     <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="59" t="s">
+      <c r="A62" s="28" t="s">
         <v>189</v>
       </c>
       <c r="B62" s="26" t="s">
@@ -2045,14 +2057,20 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="12"/>
+      <c r="A63" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="12"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="33"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
@@ -2280,7 +2298,10 @@
       <c r="C109" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="C57:C59"/>
     <mergeCell ref="C52:C53"/>
@@ -2314,915 +2335,919 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="51"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="54"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="47"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="57"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="50"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="35"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="38"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="40"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="35"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="37"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="38"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="40"/>
     </row>
     <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="35"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="37"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="38"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="40"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="33" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="35"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="37"/>
     </row>
     <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="38"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="40"/>
     </row>
     <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="33" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="35"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="37"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="38"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="40"/>
     </row>
     <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="33" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="35"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="37"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="47"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="53"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="38"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="40"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="39" t="s">
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="41"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="56"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="44"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="59"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="33" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="35"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="37"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="38"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="40"/>
     </row>
     <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="33" t="s">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="35"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="37"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="38"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="40"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="33" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="35"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="37"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="38"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="40"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="33" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="35"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="37"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="38"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="40"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="33" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="35"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="37"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="38"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="40"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="35"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="37"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="38"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="40"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="35"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="37"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="38"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="40"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="35"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="37"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="38"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A31:K32"/>
-    <mergeCell ref="L31:W32"/>
-    <mergeCell ref="A33:K34"/>
-    <mergeCell ref="L33:W34"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="L27:W28"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="A10:K11"/>
+    <mergeCell ref="A12:K13"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:W18"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:W20"/>
+    <mergeCell ref="A14:K16"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="L1:W3"/>
     <mergeCell ref="A29:K30"/>
@@ -3239,16 +3264,12 @@
     <mergeCell ref="L10:W11"/>
     <mergeCell ref="L12:W13"/>
     <mergeCell ref="L14:W16"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:W18"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:W20"/>
-    <mergeCell ref="A14:K16"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A6:K7"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="A10:K11"/>
-    <mergeCell ref="A12:K13"/>
+    <mergeCell ref="A31:K32"/>
+    <mergeCell ref="L31:W32"/>
+    <mergeCell ref="A33:K34"/>
+    <mergeCell ref="L33:W34"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="L27:W28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Kontacts_контакты для Сергея.xlsx
+++ b/Kontacts_контакты для Сергея.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Taranov\LAPOUS_BOSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8EB3D4-FFAE-420F-8E2A-1776F64F7F1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E20578B-E5D4-4088-98F5-3AE40909F02F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="203">
   <si>
     <t>контрагент</t>
   </si>
@@ -676,6 +676,15 @@
   </si>
   <si>
     <t>Рабистар по 1 дозе недорого, высылают по Новой Почте. Винница, ул.50 лет победы-34А, рынок "Маки"</t>
+  </si>
+  <si>
+    <t>https://aveal.com.ua</t>
+  </si>
+  <si>
+    <t>(044) 299-77-00;  (067) 467-45-68;  (095) 286-99-65</t>
+  </si>
+  <si>
+    <t>Салфетки зеленіе от 13 грн</t>
   </si>
 </sst>
 </file>
@@ -933,7 +942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1019,18 +1028,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1049,6 +1067,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1079,38 +1124,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1396,7 +1414,7 @@
   <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:C64"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,36 +1978,36 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="34" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="31"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="34"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="31" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="33"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="31"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
@@ -2003,29 +2021,29 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="32" t="s">
         <v>176</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="32" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="30"/>
+      <c r="C58" s="32"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="30"/>
+      <c r="C59" s="32"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
@@ -2057,25 +2075,31 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="B63" s="61" t="s">
+      <c r="B63" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="31" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="33"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="12"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="31"/>
+    </row>
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
@@ -2299,24 +2323,25 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B59" r:id="rId1" display="mailto:info@biotestlab.net" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A33" r:id="rId2" display="tarashopinfo@gmail.com" xr:uid="{165F3AAD-EB50-42A1-918B-61F2BD253300}"/>
+    <hyperlink ref="A65" r:id="rId3" xr:uid="{BD4B8E2A-2FB6-4BB8-B2BC-6A031418B4AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" copies="10" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" copies="10" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2335,919 +2360,915 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="44"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="56"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="47"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="59"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="50"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="62"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="35" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="37"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="40"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="40"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="43"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="35" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="37"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="40"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="40"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="43"/>
     </row>
     <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="35" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="37"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="40"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="40"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="43"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="35" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="37"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="40"/>
     </row>
     <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="40"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="43"/>
     </row>
     <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="35" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="37"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="40"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="40"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="43"/>
     </row>
     <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="35" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="37"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="40"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="53"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="52"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="40"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="43"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="54" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="56"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="46"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="59"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="49"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="35" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="37"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="40"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="43"/>
     </row>
     <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="35" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="37"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="40"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="40"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="43"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="35" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="37"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="40"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="40"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="43"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="35" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="37"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="40"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="40"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="43"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="35" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="37"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="40"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="40"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="43"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="37"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="40"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="40"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="43"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="37"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="40"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="40"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="43"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="37"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="40"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="40"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A6:K7"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="A10:K11"/>
-    <mergeCell ref="A12:K13"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:W18"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:W20"/>
-    <mergeCell ref="A14:K16"/>
+    <mergeCell ref="A31:K32"/>
+    <mergeCell ref="L31:W32"/>
+    <mergeCell ref="A33:K34"/>
+    <mergeCell ref="L33:W34"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="L27:W28"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="L1:W3"/>
     <mergeCell ref="A29:K30"/>
@@ -3264,12 +3285,16 @@
     <mergeCell ref="L10:W11"/>
     <mergeCell ref="L12:W13"/>
     <mergeCell ref="L14:W16"/>
-    <mergeCell ref="A31:K32"/>
-    <mergeCell ref="L31:W32"/>
-    <mergeCell ref="A33:K34"/>
-    <mergeCell ref="L33:W34"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="L27:W28"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:W18"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:W20"/>
+    <mergeCell ref="A14:K16"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="A10:K11"/>
+    <mergeCell ref="A12:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Kontacts_контакты для Сергея.xlsx
+++ b/Kontacts_контакты для Сергея.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Taranov\LAPOUS_BOSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Boss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8EB3D4-FFAE-420F-8E2A-1776F64F7F1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A19AC1-EE62-40B0-9606-80F6C4B4102B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Поставщики" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="203">
   <si>
     <t>контрагент</t>
   </si>
@@ -676,6 +676,15 @@
   </si>
   <si>
     <t>Рабистар по 1 дозе недорого, высылают по Новой Почте. Винница, ул.50 лет победы-34А, рынок "Маки"</t>
+  </si>
+  <si>
+    <t>Спика-Зообонус</t>
+  </si>
+  <si>
+    <t>Паламарчук Арсений 0987384050  063 409 67 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шампуни DAVIS, GRABI DOG, </t>
   </si>
 </sst>
 </file>
@@ -933,7 +942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1017,6 +1026,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1025,12 +1040,12 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1049,6 +1064,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1079,38 +1121,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1395,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:C64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,36 +1972,36 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="33" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="31"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="33"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="30" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="33"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="30"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
@@ -2003,29 +2015,29 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="31" t="s">
         <v>176</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="31" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="30"/>
+      <c r="C58" s="31"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="30"/>
+      <c r="C59" s="31"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
@@ -2057,25 +2069,31 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="B63" s="61" t="s">
+      <c r="B63" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="30" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="33"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="12"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="30"/>
+    </row>
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
@@ -2299,17 +2317,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B59" r:id="rId1" display="mailto:info@biotestlab.net" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2335,919 +2353,915 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="44"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="47"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="58"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="50"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="61"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="35" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="37"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="39"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="40"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="42"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="35" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="37"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="39"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="40"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="42"/>
     </row>
     <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="35" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="37"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="39"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="40"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="42"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="35" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="37"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="39"/>
     </row>
     <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="40"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="42"/>
     </row>
     <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="35" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="37"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="39"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="40"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="35" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="37"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="39"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="53"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="51"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="40"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="42"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="54" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="56"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="45"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="59"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="48"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="35" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="37"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="39"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="40"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="42"/>
     </row>
     <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="35" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="39"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="40"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="42"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="35" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="37"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="39"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="40"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="42"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="35" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="37"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="39"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="40"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="42"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="35" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="37"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="39"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="40"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="42"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="37"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="39"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="40"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="42"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="37"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="39"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="40"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="42"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="37"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="39"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="40"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A6:K7"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="A10:K11"/>
-    <mergeCell ref="A12:K13"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:W18"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:W20"/>
-    <mergeCell ref="A14:K16"/>
+    <mergeCell ref="A31:K32"/>
+    <mergeCell ref="L31:W32"/>
+    <mergeCell ref="A33:K34"/>
+    <mergeCell ref="L33:W34"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="L27:W28"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="L1:W3"/>
     <mergeCell ref="A29:K30"/>
@@ -3264,12 +3278,16 @@
     <mergeCell ref="L10:W11"/>
     <mergeCell ref="L12:W13"/>
     <mergeCell ref="L14:W16"/>
-    <mergeCell ref="A31:K32"/>
-    <mergeCell ref="L31:W32"/>
-    <mergeCell ref="A33:K34"/>
-    <mergeCell ref="L33:W34"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="L27:W28"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:W18"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:W20"/>
+    <mergeCell ref="A14:K16"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="A10:K11"/>
+    <mergeCell ref="A12:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Kontacts_контакты для Сергея.xlsx
+++ b/Kontacts_контакты для Сергея.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Boss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A19AC1-EE62-40B0-9606-80F6C4B4102B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DDCCCA-71B1-47EF-9960-FD1BDBFE2995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="195" windowWidth="18000" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Поставщики" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="206">
   <si>
     <t>контрагент</t>
   </si>
@@ -685,6 +685,15 @@
   </si>
   <si>
     <t xml:space="preserve">Шампуни DAVIS, GRABI DOG, </t>
+  </si>
+  <si>
+    <t>https://aveal.com.ua</t>
+  </si>
+  <si>
+    <t>(044) 299-77-00;  (067) 467-45-68;  (095) 286-99-65</t>
+  </si>
+  <si>
+    <t>Салфетки зеленіе от 13 грн</t>
   </si>
 </sst>
 </file>
@@ -942,7 +951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1025,103 +1034,112 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1408,7 +1426,7 @@
   <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,36 +1990,36 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="31" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="33"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="31"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="33" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="30"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="33"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
@@ -2015,29 +2033,29 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="35" t="s">
         <v>176</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="35" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="31"/>
+      <c r="C58" s="35"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="31"/>
+      <c r="C59" s="35"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
@@ -2069,36 +2087,42 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="33" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="30"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="33"/>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="B65" s="30" t="s">
         <v>201</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="12"/>
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="63" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
@@ -2317,24 +2341,25 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B59" r:id="rId1" display="mailto:info@biotestlab.net" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A33" r:id="rId2" display="tarashopinfo@gmail.com" xr:uid="{165F3AAD-EB50-42A1-918B-61F2BD253300}"/>
+    <hyperlink ref="A66" r:id="rId3" xr:uid="{BD4B8E2A-2FB6-4BB8-B2BC-6A031418B4AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" copies="10" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" copies="10" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2353,98 +2378,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="55"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="58"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="49"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="61"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="52"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="37" t="s">
         <v>136</v>
       </c>
@@ -2461,17 +2486,17 @@
       <c r="W4" s="39"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
       <c r="L5" s="40"/>
       <c r="M5" s="41"/>
       <c r="N5" s="41"/>
@@ -2486,19 +2511,19 @@
       <c r="W5" s="42"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
       <c r="L6" s="37" t="s">
         <v>145</v>
       </c>
@@ -2515,17 +2540,17 @@
       <c r="W6" s="39"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
       <c r="L7" s="40"/>
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
@@ -2540,19 +2565,19 @@
       <c r="W7" s="42"/>
     </row>
     <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
       <c r="L8" s="37" t="s">
         <v>146</v>
       </c>
@@ -2569,17 +2594,17 @@
       <c r="W8" s="39"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
       <c r="L9" s="40"/>
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
@@ -2731,29 +2756,29 @@
       <c r="W14" s="39"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="51"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="55"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
@@ -2781,58 +2806,58 @@
       <c r="W16" s="42"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="43" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="45"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="58"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="48"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="61"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
@@ -3256,12 +3281,16 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A31:K32"/>
-    <mergeCell ref="L31:W32"/>
-    <mergeCell ref="A33:K34"/>
-    <mergeCell ref="L33:W34"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="L27:W28"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="A10:K11"/>
+    <mergeCell ref="A12:K13"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:W18"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:W20"/>
+    <mergeCell ref="A14:K16"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="L1:W3"/>
     <mergeCell ref="A29:K30"/>
@@ -3278,16 +3307,12 @@
     <mergeCell ref="L10:W11"/>
     <mergeCell ref="L12:W13"/>
     <mergeCell ref="L14:W16"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:W18"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:W20"/>
-    <mergeCell ref="A14:K16"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A6:K7"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="A10:K11"/>
-    <mergeCell ref="A12:K13"/>
+    <mergeCell ref="A31:K32"/>
+    <mergeCell ref="L31:W32"/>
+    <mergeCell ref="A33:K34"/>
+    <mergeCell ref="L33:W34"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="L27:W28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Kontacts_контакты для Сергея.xlsx
+++ b/Kontacts_контакты для Сергея.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Boss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DDCCCA-71B1-47EF-9960-FD1BDBFE2995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD76180-CCD6-4EE7-88C3-386F05FFC457}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="195" windowWidth="18000" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Поставщики" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="208">
   <si>
     <t>контрагент</t>
   </si>
@@ -694,6 +694,12 @@
   </si>
   <si>
     <t>Салфетки зеленіе от 13 грн</t>
+  </si>
+  <si>
+    <t>"Триплекс"</t>
+  </si>
+  <si>
+    <t>099-433-50-19(раб)   096-738-50-02(Василий Кудрявцев+Вайбер)</t>
   </si>
 </sst>
 </file>
@@ -951,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1034,8 +1040,23 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1043,16 +1064,10 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1073,6 +1088,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1101,45 +1143,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1425,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,26 +1993,26 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="36" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="31"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="36"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="38" t="s">
         <v>171</v>
       </c>
       <c r="C54" s="33" t="s">
@@ -2017,8 +2020,8 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="33"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2033,29 +2036,29 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="34" t="s">
         <v>176</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="34" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="35"/>
+      <c r="C58" s="34"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="35"/>
+      <c r="C59" s="34"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
@@ -2087,10 +2090,10 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="35" t="s">
         <v>198</v>
       </c>
       <c r="C63" s="33" t="s">
@@ -2098,36 +2101,40 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="36"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="33"/>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="30" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="64" t="s">
+      <c r="A66" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B66" s="65" t="s">
+      <c r="B66" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C66" s="63" t="s">
+      <c r="C66" s="30" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="12"/>
+    <row r="67" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="30"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
@@ -2341,17 +2348,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B59" r:id="rId1" display="mailto:info@biotestlab.net" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2378,919 +2385,915 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="46"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="58"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="61"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="52"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="64"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="37" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="39"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="42"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="42"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="37" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="39"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="42"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="42"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="37" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="39"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="42"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="42"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="45"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="37" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="39"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="42"/>
     </row>
     <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="42"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="45"/>
     </row>
     <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="37" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="39"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="42"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="42"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="45"/>
     </row>
     <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="37" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="39"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="42"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="55"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="54"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="42"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="45"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="56" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="58"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="48"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="61"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="51"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="37" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="39"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="42"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="42"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="45"/>
     </row>
     <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="37" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="39"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="42"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="42"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="45"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="37" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="39"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="42"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="42"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="45"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="37" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="39"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="42"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="42"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="45"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="37" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="39"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="42"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="42"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="45"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="39"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="42"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="42"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="45"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="39"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="42"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="42"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="45"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="39"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="42"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="42"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A6:K7"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="A10:K11"/>
-    <mergeCell ref="A12:K13"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:W18"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:W20"/>
-    <mergeCell ref="A14:K16"/>
+    <mergeCell ref="A31:K32"/>
+    <mergeCell ref="L31:W32"/>
+    <mergeCell ref="A33:K34"/>
+    <mergeCell ref="L33:W34"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="L27:W28"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="L1:W3"/>
     <mergeCell ref="A29:K30"/>
@@ -3307,12 +3310,16 @@
     <mergeCell ref="L10:W11"/>
     <mergeCell ref="L12:W13"/>
     <mergeCell ref="L14:W16"/>
-    <mergeCell ref="A31:K32"/>
-    <mergeCell ref="L31:W32"/>
-    <mergeCell ref="A33:K34"/>
-    <mergeCell ref="L33:W34"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="L27:W28"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:W18"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:W20"/>
+    <mergeCell ref="A14:K16"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="A10:K11"/>
+    <mergeCell ref="A12:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Kontacts_контакты для Сергея.xlsx
+++ b/Kontacts_контакты для Сергея.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Boss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD76180-CCD6-4EE7-88C3-386F05FFC457}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D06A102-AE97-4200-9320-CB1CD8001FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="211">
   <si>
     <t>контрагент</t>
   </si>
@@ -700,6 +700,15 @@
   </si>
   <si>
     <t>099-433-50-19(раб)   096-738-50-02(Василий Кудрявцев+Вайбер)</t>
+  </si>
+  <si>
+    <t>Витренко ЧП</t>
+  </si>
+  <si>
+    <t>093-215-94-17</t>
+  </si>
+  <si>
+    <t>Рукавички+шприці недорого</t>
   </si>
 </sst>
 </file>
@@ -957,7 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1050,7 +1059,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1058,92 +1082,83 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1428,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,20 +2008,20 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="35" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="36"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="35"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
@@ -2015,14 +2030,14 @@
       <c r="B54" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="37" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="38"/>
-      <c r="C55" s="33"/>
+      <c r="C55" s="37"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
@@ -2036,29 +2051,29 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="39" t="s">
         <v>176</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="39" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="34"/>
+      <c r="C58" s="39"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="34"/>
+      <c r="C59" s="39"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
@@ -2090,20 +2105,20 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="37" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="33"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="37"/>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
@@ -2137,9 +2152,15 @@
       <c r="C67" s="30"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="12"/>
+      <c r="A68" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
@@ -2348,17 +2369,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="C57:C59"/>
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B59" r:id="rId1" display="mailto:info@biotestlab.net" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2385,915 +2406,919 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="56" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="58"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="50"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="61"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="53"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="64"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="56"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="43"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="45"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="43"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="45"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="46"/>
     </row>
     <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="43"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="45"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="46"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="40" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="43"/>
     </row>
     <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="45"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="46"/>
     </row>
     <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="40" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="43"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="45"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="46"/>
     </row>
     <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="40" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="43"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="54"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="59"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="45"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="46"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="46" t="s">
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="48"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="62"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="51"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="65"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="40" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="43"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="45"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="46"/>
     </row>
     <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="40" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="43"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="45"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="46"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="40" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="43"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="45"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="46"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="40" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="43"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="45"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="46"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="40" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="43"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="45"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="46"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="42"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="43"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="45"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="46"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="42"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="43"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="45"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="46"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="42"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="43"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="45"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A31:K32"/>
-    <mergeCell ref="L31:W32"/>
-    <mergeCell ref="A33:K34"/>
-    <mergeCell ref="L33:W34"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="L27:W28"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="A10:K11"/>
+    <mergeCell ref="A12:K13"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:W18"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:W20"/>
+    <mergeCell ref="A14:K16"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="L1:W3"/>
     <mergeCell ref="A29:K30"/>
@@ -3310,16 +3335,12 @@
     <mergeCell ref="L10:W11"/>
     <mergeCell ref="L12:W13"/>
     <mergeCell ref="L14:W16"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:W18"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:W20"/>
-    <mergeCell ref="A14:K16"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A6:K7"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="A10:K11"/>
-    <mergeCell ref="A12:K13"/>
+    <mergeCell ref="A31:K32"/>
+    <mergeCell ref="L31:W32"/>
+    <mergeCell ref="A33:K34"/>
+    <mergeCell ref="L33:W34"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="L27:W28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Kontacts_контакты для Сергея.xlsx
+++ b/Kontacts_контакты для Сергея.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Boss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lapous_boss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D06A102-AE97-4200-9320-CB1CD8001FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Поставщики" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="199">
   <si>
     <t>контрагент</t>
   </si>
@@ -128,15 +127,6 @@
     <t xml:space="preserve"> электрики</t>
   </si>
   <si>
-    <t>Анестезиолог</t>
-  </si>
-  <si>
-    <t>Анастасия Черната</t>
-  </si>
-  <si>
-    <t>097 941 07 91</t>
-  </si>
-  <si>
     <t>Симедика</t>
   </si>
   <si>
@@ -155,15 +145,6 @@
     <t>Юрий Щербань</t>
   </si>
   <si>
-    <t>Богдан</t>
-  </si>
-  <si>
-    <t>067 293 80 15</t>
-  </si>
-  <si>
-    <t>Офтальмолог</t>
-  </si>
-  <si>
     <t>067 656 32 82</t>
   </si>
   <si>
@@ -176,15 +157,6 @@
     <t>067 740 73 01</t>
   </si>
   <si>
-    <t>Экзотолог,ратолог, орнитолог</t>
-  </si>
-  <si>
-    <t>Дмитрий</t>
-  </si>
-  <si>
-    <t>063 100 36 62</t>
-  </si>
-  <si>
     <t>Дистилированная вода</t>
   </si>
   <si>
@@ -240,15 +212,6 @@
   </si>
   <si>
     <t>067 829 22 99</t>
-  </si>
-  <si>
-    <t>дерматолог</t>
-  </si>
-  <si>
-    <t>067 990 20 93</t>
-  </si>
-  <si>
-    <t>Андронова Татьяна Игоревна</t>
   </si>
   <si>
     <t>Экзотолог</t>
@@ -714,7 +677,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1064,22 +1027,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1100,6 +1066,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1130,40 +1123,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1440,11 +1403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,7 +1436,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1492,7 +1455,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>22</v>
@@ -1512,10 +1475,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1619,13 +1582,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1633,187 +1596,187 @@
         <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
+      <c r="C19" s="25" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="7" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="C22" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="B24" s="7" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="C27" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="7" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="7" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>77</v>
       </c>
@@ -1824,343 +1787,319 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="C39" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="A40" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="B40" s="9" t="s">
         <v>99</v>
       </c>
+      <c r="C40" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="B41" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="B42" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>105</v>
+      <c r="B43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="A44" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="11"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="11"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C46" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="11"/>
+      <c r="A48" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="11"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="38"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="A50" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="35"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="36"/>
+      <c r="B54" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="36"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="36"/>
+      <c r="B55" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="C52" s="35" t="s">
+      <c r="C55" s="36"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="35"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+      <c r="B56" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B54" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="37"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B57" s="16" t="s">
+      <c r="C57" s="22"/>
+    </row>
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="39"/>
+      <c r="C58" s="25" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" s="39"/>
+      <c r="A59" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="C61" s="22"/>
-    </row>
-    <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
+      <c r="A60" s="36"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="35"/>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="C61" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="C62" s="25" t="s">
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+      <c r="B62" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="30"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="C64" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="37" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="37"/>
-    </row>
-    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" s="30"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="12"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="12"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="12"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>210</v>
-      </c>
+      <c r="A68" s="12"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="12"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
@@ -2347,44 +2286,24 @@
       <c r="B105" s="9"/>
       <c r="C105" s="12"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="12"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="12"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="12"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="C53:C55"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B59" r:id="rId1" display="mailto:info@biotestlab.net" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A33" r:id="rId2" display="tarashopinfo@gmail.com" xr:uid="{165F3AAD-EB50-42A1-918B-61F2BD253300}"/>
-    <hyperlink ref="A66" r:id="rId3" xr:uid="{BD4B8E2A-2FB6-4BB8-B2BC-6A031418B4AE}"/>
+    <hyperlink ref="B55" r:id="rId1" display="mailto:info@biotestlab.net"/>
+    <hyperlink ref="A29" r:id="rId2" display="tarashopinfo@gmail.com"/>
+    <hyperlink ref="A62" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" copies="10" r:id="rId4"/>
@@ -2392,7 +2311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -2406,919 +2325,915 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="50"/>
+      <c r="A1" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="60"/>
     </row>
     <row r="2" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="53"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="63"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="56"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="66"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="44"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="47"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="44"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="47"/>
+    </row>
+    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="44"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="47"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="44"/>
+    </row>
+    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="47"/>
+    </row>
+    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="44"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="47"/>
+    </row>
+    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="44"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="56"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="47"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="41" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="43"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="46"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="50"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="53"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="41" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="44"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="47"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="44"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="47"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="44"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="47"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="44"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="47"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="43"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="46"/>
-    </row>
-    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="41" t="s">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="43"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="46"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="43"/>
-    </row>
-    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="46"/>
-    </row>
-    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="43"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="46"/>
-    </row>
-    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="43"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="57"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="59"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="46"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="62"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="65"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="43"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="46"/>
-    </row>
-    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="43"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="46"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="43"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="46"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="43"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="46"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="44"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="46"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="47"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="43"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="44"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="46"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="47"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="43"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="44"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="46"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="47"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="43"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="44"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="46"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A6:K7"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="A10:K11"/>
-    <mergeCell ref="A12:K13"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:W18"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:W20"/>
-    <mergeCell ref="A14:K16"/>
+    <mergeCell ref="A31:K32"/>
+    <mergeCell ref="L31:W32"/>
+    <mergeCell ref="A33:K34"/>
+    <mergeCell ref="L33:W34"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="L27:W28"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="L1:W3"/>
     <mergeCell ref="A29:K30"/>
@@ -3335,12 +3250,16 @@
     <mergeCell ref="L10:W11"/>
     <mergeCell ref="L12:W13"/>
     <mergeCell ref="L14:W16"/>
-    <mergeCell ref="A31:K32"/>
-    <mergeCell ref="L31:W32"/>
-    <mergeCell ref="A33:K34"/>
-    <mergeCell ref="L33:W34"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="L27:W28"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:W18"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:W20"/>
+    <mergeCell ref="A14:K16"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="A10:K11"/>
+    <mergeCell ref="A12:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3348,7 +3267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3362,26 +3281,26 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
